--- a/BeugungAmSpalt/doppelspalt.xlsx
+++ b/BeugungAmSpalt/doppelspalt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9457289cfee3946e/Documents/Git/Praktikum/BeugungAmSpalt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D209B588-2AF2-4268-BEC7-FDDD2A919D08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{D209B588-2AF2-4268-BEC7-FDDD2A919D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D39A8A69-91E0-4302-AFA0-294D125E2A57}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1353C577-759B-48DB-92FD-323C64A8878B}"/>
   </bookViews>
@@ -380,668 +380,560 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3741C71C-8A24-49B1-B527-0196F970AE37}">
-  <dimension ref="A2:B83"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>42.3</v>
+      </c>
+      <c r="F2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>42.4</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>42.5</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>31</v>
+      </c>
+      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>43.5</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>32.5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>44.1</v>
+      </c>
+      <c r="F8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>33.5</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>44.2</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>44.3</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>34.5</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>44.4</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12">
+        <v>44.5</v>
+      </c>
+      <c r="F12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>35.5</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>44.6</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>36</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>44.7</v>
+      </c>
+      <c r="F14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>36.5</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>44.8</v>
+      </c>
+      <c r="F15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>44.9</v>
+      </c>
+      <c r="F16">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>37.5</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>45.5</v>
+      </c>
+      <c r="F18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>38.5</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>46.5</v>
+      </c>
+      <c r="F20">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>39.5</v>
+      </c>
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>47</v>
+      </c>
+      <c r="F21">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>47.5</v>
+      </c>
+      <c r="F22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>40.5</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>48</v>
+      </c>
+      <c r="F23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>29</v>
+      </c>
+      <c r="E24">
+        <v>48.5</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>41.25</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <v>49</v>
+      </c>
+      <c r="F25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>41.5</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>49.5</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>42.1</v>
+      </c>
+      <c r="D28">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>32.5</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>33.5</v>
-      </c>
-      <c r="B37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>34</v>
-      </c>
-      <c r="B38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>34.5</v>
-      </c>
-      <c r="B39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>35</v>
-      </c>
-      <c r="B40">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>35.5</v>
-      </c>
-      <c r="B41">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>36.5</v>
-      </c>
-      <c r="B43">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>37</v>
-      </c>
-      <c r="B44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>37.5</v>
-      </c>
-      <c r="B45">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>38</v>
-      </c>
-      <c r="B46">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>38.5</v>
-      </c>
-      <c r="B47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>39</v>
-      </c>
-      <c r="B48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>39.5</v>
-      </c>
-      <c r="B49">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>40</v>
-      </c>
-      <c r="B50">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>40.5</v>
-      </c>
-      <c r="B51">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>41</v>
-      </c>
-      <c r="B52">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>41.25</v>
-      </c>
-      <c r="B53">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>41.5</v>
-      </c>
-      <c r="B54">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>42</v>
-      </c>
-      <c r="B55">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>42.1</v>
-      </c>
-      <c r="B56">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="C29">
         <v>42.2</v>
       </c>
-      <c r="B57">
+      <c r="D29">
         <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>42.3</v>
-      </c>
-      <c r="B58">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>42.4</v>
-      </c>
-      <c r="B59">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>42.5</v>
-      </c>
-      <c r="B60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>43</v>
-      </c>
-      <c r="B61">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>43.5</v>
-      </c>
-      <c r="B62">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>44</v>
-      </c>
-      <c r="B63">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>44.1</v>
-      </c>
-      <c r="B64">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>44.2</v>
-      </c>
-      <c r="B65">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>44.3</v>
-      </c>
-      <c r="B66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>44.4</v>
-      </c>
-      <c r="B67">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>44.5</v>
-      </c>
-      <c r="B68">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>44.6</v>
-      </c>
-      <c r="B69">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>44.7</v>
-      </c>
-      <c r="B70">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>44.8</v>
-      </c>
-      <c r="B71">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>44.9</v>
-      </c>
-      <c r="B72">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>45</v>
-      </c>
-      <c r="B73">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>45.5</v>
-      </c>
-      <c r="B74">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>46</v>
-      </c>
-      <c r="B75">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>46.5</v>
-      </c>
-      <c r="B76">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>47</v>
-      </c>
-      <c r="B77">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>47.5</v>
-      </c>
-      <c r="B78">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>48</v>
-      </c>
-      <c r="B79">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>48.5</v>
-      </c>
-      <c r="B80">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>49</v>
-      </c>
-      <c r="B81">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>49.5</v>
-      </c>
-      <c r="B82">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>50</v>
-      </c>
-      <c r="B83">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
